--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Fgf13-Scn8a.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Fgf13-Scn8a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.039932954499061</v>
+        <v>0.14444</v>
       </c>
       <c r="H2">
-        <v>0.039932954499061</v>
+        <v>0.43332</v>
       </c>
       <c r="I2">
-        <v>0.02077207526926384</v>
+        <v>0.06801140868936309</v>
       </c>
       <c r="J2">
-        <v>0.02077207526926384</v>
+        <v>0.06801140868936309</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.641192346319666</v>
+        <v>0.07718933333333333</v>
       </c>
       <c r="N2">
-        <v>0.641192346319666</v>
+        <v>0.231568</v>
       </c>
       <c r="O2">
-        <v>0.6265507837816894</v>
+        <v>0.06450640626545157</v>
       </c>
       <c r="P2">
-        <v>0.6265507837816894</v>
+        <v>0.06450640626545157</v>
       </c>
       <c r="Q2">
-        <v>0.02560470479072939</v>
+        <v>0.01114922730666667</v>
       </c>
       <c r="R2">
-        <v>0.02560470479072939</v>
+        <v>0.10034304576</v>
       </c>
       <c r="S2">
-        <v>0.01301476004072951</v>
+        <v>0.004387171559601718</v>
       </c>
       <c r="T2">
-        <v>0.01301476004072951</v>
+        <v>0.004387171559601718</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.039932954499061</v>
+        <v>0.14444</v>
       </c>
       <c r="H3">
-        <v>0.039932954499061</v>
+        <v>0.43332</v>
       </c>
       <c r="I3">
-        <v>0.02077207526926384</v>
+        <v>0.06801140868936309</v>
       </c>
       <c r="J3">
-        <v>0.02077207526926384</v>
+        <v>0.06801140868936309</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.382176170514044</v>
+        <v>0.654434</v>
       </c>
       <c r="N3">
-        <v>0.382176170514044</v>
+        <v>1.963302</v>
       </c>
       <c r="O3">
-        <v>0.3734492162183106</v>
+        <v>0.546904392808046</v>
       </c>
       <c r="P3">
-        <v>0.3734492162183106</v>
+        <v>0.546904392808046</v>
       </c>
       <c r="Q3">
-        <v>0.0152614236277627</v>
+        <v>0.09452644696</v>
       </c>
       <c r="R3">
-        <v>0.0152614236277627</v>
+        <v>0.85073802264</v>
       </c>
       <c r="S3">
-        <v>0.007757315228534334</v>
+        <v>0.03719573817327599</v>
       </c>
       <c r="T3">
-        <v>0.007757315228534334</v>
+        <v>0.03719573817327599</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -649,55 +649,55 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.88250156306449</v>
+        <v>0.14444</v>
       </c>
       <c r="H4">
-        <v>1.88250156306449</v>
+        <v>0.43332</v>
       </c>
       <c r="I4">
-        <v>0.9792279247307362</v>
+        <v>0.06801140868936309</v>
       </c>
       <c r="J4">
-        <v>0.9792279247307362</v>
+        <v>0.06801140868936309</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.641192346319666</v>
+        <v>0.4649916666666667</v>
       </c>
       <c r="N4">
-        <v>0.641192346319666</v>
+        <v>1.394975</v>
       </c>
       <c r="O4">
-        <v>0.6265507837816894</v>
+        <v>0.3885892009265024</v>
       </c>
       <c r="P4">
-        <v>0.6265507837816894</v>
+        <v>0.3885892009265024</v>
       </c>
       <c r="Q4">
-        <v>1.207045594171759</v>
+        <v>0.06716339633333335</v>
       </c>
       <c r="R4">
-        <v>1.207045594171759</v>
+        <v>0.6044705670000001</v>
       </c>
       <c r="S4">
-        <v>0.6135360237409598</v>
+        <v>0.02642849895648539</v>
       </c>
       <c r="T4">
-        <v>0.6135360237409598</v>
+        <v>0.02642849895648539</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,55 +711,179 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.979321333333333</v>
+      </c>
+      <c r="H5">
+        <v>5.937964</v>
+      </c>
+      <c r="I5">
+        <v>0.9319885913106368</v>
+      </c>
+      <c r="J5">
+        <v>0.9319885913106369</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.07718933333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.231568</v>
+      </c>
+      <c r="O5">
+        <v>0.06450640626545157</v>
+      </c>
+      <c r="P5">
+        <v>0.06450640626545157</v>
+      </c>
+      <c r="Q5">
+        <v>0.1527824941724444</v>
+      </c>
+      <c r="R5">
+        <v>1.375042447552</v>
+      </c>
+      <c r="S5">
+        <v>0.06011923470584984</v>
+      </c>
+      <c r="T5">
+        <v>0.06011923470584985</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.88250156306449</v>
-      </c>
-      <c r="H5">
-        <v>1.88250156306449</v>
-      </c>
-      <c r="I5">
-        <v>0.9792279247307362</v>
-      </c>
-      <c r="J5">
-        <v>0.9792279247307362</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.382176170514044</v>
-      </c>
-      <c r="N5">
-        <v>0.382176170514044</v>
-      </c>
-      <c r="O5">
-        <v>0.3734492162183106</v>
-      </c>
-      <c r="P5">
-        <v>0.3734492162183106</v>
-      </c>
-      <c r="Q5">
-        <v>0.7194472383586888</v>
-      </c>
-      <c r="R5">
-        <v>0.7194472383586888</v>
-      </c>
-      <c r="S5">
-        <v>0.3656919009897762</v>
-      </c>
-      <c r="T5">
-        <v>0.3656919009897762</v>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.979321333333333</v>
+      </c>
+      <c r="H6">
+        <v>5.937964</v>
+      </c>
+      <c r="I6">
+        <v>0.9319885913106368</v>
+      </c>
+      <c r="J6">
+        <v>0.9319885913106369</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.654434</v>
+      </c>
+      <c r="N6">
+        <v>1.963302</v>
+      </c>
+      <c r="O6">
+        <v>0.546904392808046</v>
+      </c>
+      <c r="P6">
+        <v>0.546904392808046</v>
+      </c>
+      <c r="Q6">
+        <v>1.295335177458667</v>
+      </c>
+      <c r="R6">
+        <v>11.658016597128</v>
+      </c>
+      <c r="S6">
+        <v>0.50970865463477</v>
+      </c>
+      <c r="T6">
+        <v>0.5097086546347701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.979321333333333</v>
+      </c>
+      <c r="H7">
+        <v>5.937964</v>
+      </c>
+      <c r="I7">
+        <v>0.9319885913106368</v>
+      </c>
+      <c r="J7">
+        <v>0.9319885913106369</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.4649916666666667</v>
+      </c>
+      <c r="N7">
+        <v>1.394975</v>
+      </c>
+      <c r="O7">
+        <v>0.3885892009265024</v>
+      </c>
+      <c r="P7">
+        <v>0.3885892009265024</v>
+      </c>
+      <c r="Q7">
+        <v>0.9203679256555556</v>
+      </c>
+      <c r="R7">
+        <v>8.2833113309</v>
+      </c>
+      <c r="S7">
+        <v>0.362160701970017</v>
+      </c>
+      <c r="T7">
+        <v>0.362160701970017</v>
       </c>
     </row>
   </sheetData>
